--- a/School.xlsx
+++ b/School.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">alienyuyen@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">entebbejunior@gmail.com</t>
+    <t xml:space="preserve">entebbejunior12@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">alien_lee</t>
@@ -234,7 +234,7 @@
   <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -257,7 +257,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -341,200 +341,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.42"/>
   </cols>
   <sheetData>
@@ -564,7 +389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -586,7 +411,7 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="b">
+      <c r="H2" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -613,7 +438,7 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="b">
+      <c r="H3" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -640,7 +465,7 @@
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="b">
+      <c r="H4" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -667,7 +492,7 @@
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="H5" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -694,7 +519,7 @@
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="b">
+      <c r="H6" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -721,7 +546,7 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="3" t="b">
+      <c r="H7" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -748,7 +573,7 @@
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="3" t="b">
+      <c r="H8" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -775,7 +600,7 @@
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="b">
+      <c r="H9" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -802,7 +627,7 @@
       <c r="G10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="b">
+      <c r="H10" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -829,7 +654,7 @@
       <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="3" t="b">
+      <c r="H11" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -837,7 +662,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="alienyuyen@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="entebbejunior@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="entebbejunior12@gmail.com"/>
     <hyperlink ref="E3" r:id="rId3" display="mpairwelaubenn@gmail.com"/>
     <hyperlink ref="F3" r:id="rId4" display="kawempemodern@gmail.com"/>
     <hyperlink ref="E4" r:id="rId5" display="mpairwelauben75@gmail.com"/>
@@ -858,7 +683,7 @@
     <hyperlink ref="F11" r:id="rId20" display="kololojunior@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/School.xlsx
+++ b/School.xlsx
@@ -1,382 +1,988 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="22872" windowHeight="9343" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registration_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email_of_representative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">representative_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entebbe Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wakiso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alienyuyen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entebbejunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alien_lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawempe modern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpairwelaubenn@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kawempemodern@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpairwe_lauben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nsangi Preparatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nsangi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpairwelauben75@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsangipreparatory@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given_lourdel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpairwelauben375@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbararamunicipal@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>registration_number</t>
+  </si>
+  <si>
+    <t>email_of_representative</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>representative_name</t>
+  </si>
+  <si>
+    <t>validated</t>
+  </si>
+  <si>
+    <t>Entebbe Junior</t>
+  </si>
+  <si>
+    <t>Wakiso</t>
+  </si>
+  <si>
+    <t>U023</t>
+  </si>
+  <si>
+    <t>alienyuyen@gmail.com</t>
+  </si>
+  <si>
+    <t>entebbejunior@gmail.com</t>
+  </si>
+  <si>
+    <t>alien_lee</t>
+  </si>
+  <si>
+    <t>Kawempe modern</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>U024</t>
+  </si>
+  <si>
+    <t>mpairwelaubenn@gmail.com</t>
+  </si>
+  <si>
+    <t>kawempemodern@gmail.com</t>
+  </si>
+  <si>
+    <t>mpairwe_lauben</t>
+  </si>
+  <si>
+    <t>Nsangi Preparatory</t>
+  </si>
+  <si>
+    <t>Nsangi</t>
+  </si>
+  <si>
+    <t>U025</t>
+  </si>
+  <si>
+    <t>mpairwelauben75@gmail.com</t>
+  </si>
+  <si>
+    <t>nsangipreparatory@gmail.com</t>
+  </si>
+  <si>
+    <t>Given_lourdel</t>
+  </si>
+  <si>
+    <t>Mbarara Municipal</t>
+  </si>
+  <si>
+    <t>Mbarara</t>
+  </si>
+  <si>
+    <t>U026</t>
+  </si>
+  <si>
+    <t>mpairwelauben375@gmail.com</t>
+  </si>
+  <si>
+    <t>mbararamunicipal@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Lee_Yu </t>
   </si>
   <si>
-    <t xml:space="preserve">Mukono Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mukono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpairwelauben24@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mukonojunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark_Horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masaka Modern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lee@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masakamodern@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasana_Henry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubiri Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alienyun@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubirijunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutebi_Trevor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lubaga Juniou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distantlife@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lubagajunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild_grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengo Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darkhorse@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mengojunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John_Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kololo Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evilcorp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kololojunior@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evil_Corp</t>
+    <t>Mukono Junior</t>
+  </si>
+  <si>
+    <t>Mukono</t>
+  </si>
+  <si>
+    <t>U027</t>
+  </si>
+  <si>
+    <t>mpairwelauben24@gmail.com</t>
+  </si>
+  <si>
+    <t>mukonojunior@gmail.com</t>
+  </si>
+  <si>
+    <t>Dark_Horse</t>
+  </si>
+  <si>
+    <t>Masaka Modern</t>
+  </si>
+  <si>
+    <t>Masaka</t>
+  </si>
+  <si>
+    <t>U028</t>
+  </si>
+  <si>
+    <t>lee@gmail.com</t>
+  </si>
+  <si>
+    <t>masakamodern@gmail.com</t>
+  </si>
+  <si>
+    <t>Kasana_Henry</t>
+  </si>
+  <si>
+    <t>Rubiri Junior</t>
+  </si>
+  <si>
+    <t>Mpigi</t>
+  </si>
+  <si>
+    <t>U029</t>
+  </si>
+  <si>
+    <t>alienyun@gmail.com</t>
+  </si>
+  <si>
+    <t>rubirijunior@gmail.com</t>
+  </si>
+  <si>
+    <t>Mutebi_Trevor</t>
+  </si>
+  <si>
+    <t>Masindi</t>
+  </si>
+  <si>
+    <t>U020</t>
+  </si>
+  <si>
+    <t>motoro@gmail.com</t>
+  </si>
+  <si>
+    <t>masindihigh@gmail.com</t>
+  </si>
+  <si>
+    <t>Mutooro_Willy</t>
+  </si>
+  <si>
+    <t>Lubaga Juniou</t>
+  </si>
+  <si>
+    <t>U030</t>
+  </si>
+  <si>
+    <t>distantlife@gmail.com</t>
+  </si>
+  <si>
+    <t>lubagajunior@gmail.com</t>
+  </si>
+  <si>
+    <t>wild_grass</t>
+  </si>
+  <si>
+    <t>Mengo Junior</t>
+  </si>
+  <si>
+    <t>Mbale</t>
+  </si>
+  <si>
+    <t>U031</t>
+  </si>
+  <si>
+    <t>darkhorse@gmail.com</t>
+  </si>
+  <si>
+    <t>mengojunior@gmail.com</t>
+  </si>
+  <si>
+    <t>John_Lee</t>
+  </si>
+  <si>
+    <t>Kololo Junior</t>
+  </si>
+  <si>
+    <t>U032</t>
+  </si>
+  <si>
+    <t>evilcorp@gmail.com</t>
+  </si>
+  <si>
+    <t>kololojunior@gmail.com</t>
+  </si>
+  <si>
+    <t>Evil_Corp</t>
+  </si>
+  <si>
+    <t>Hoima</t>
+  </si>
+  <si>
+    <t>U033</t>
+  </si>
+  <si>
+    <t>alina@gmail.com</t>
+  </si>
+  <si>
+    <t>hoimaprogresive@gmail.com</t>
+  </si>
+  <si>
+    <t>Alinaitwe_Lucy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -384,17 +990,17 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +1024,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -439,7 +1045,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -490,7 +1096,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -508,37 +1114,36 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68376068376068" defaultRowHeight="14.2" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.42"/>
+    <col min="2" max="2" width="23.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7094017094017" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.2307692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1282051282051" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7179487179487" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.4188034188034" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,8 +1169,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -586,13 +1191,13 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="1" t="b">
+        <f t="shared" ref="H2:H11" si="0">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -613,13 +1218,13 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -640,13 +1245,13 @@
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -667,13 +1272,13 @@
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -694,13 +1299,13 @@
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -721,13 +1326,13 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -748,89 +1353,130 @@
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -850,19 +1496,19 @@
     <hyperlink ref="F7" r:id="rId12" display="masakamodern@gmail.com"/>
     <hyperlink ref="E8" r:id="rId13" display="alienyun@gmail.com"/>
     <hyperlink ref="F8" r:id="rId14" display="rubirijunior@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId15" display="distantlife@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId16" display="lubagajunior@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId17" display="darkhorse@gmail.com"/>
-    <hyperlink ref="F10" r:id="rId18" display="mengojunior@gmail.com"/>
-    <hyperlink ref="E11" r:id="rId19" display="evilcorp@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId20" display="kololojunior@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId15" display="distantlife@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId16" display="lubagajunior@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId17" display="darkhorse@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId18" display="mengojunior@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId19" display="evilcorp@gmail.com"/>
+    <hyperlink ref="F12" r:id="rId20" display="kololojunior@gmail.com" tooltip="mailto:kololojunior@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId21" display="motoro@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId22" display="masindihigh@gmail.com" tooltip="mailto:masindihigh@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId23" display="alina@gmail.com"/>
+    <hyperlink ref="F13" r:id="rId24" display="hoimaprogresive@gmail.com"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>